--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8189.995288033675</v>
+        <v>1629809.062318701</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8189.995288033675</v>
+        <v>1629809.062318701</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6936.261203971062</v>
+        <v>425529.8118258649</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6936.261203971062</v>
+        <v>425529.8118258649</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959385539.821236</v>
+        <v>39573039.26003276</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9152.067227195423</v>
+        <v>945735.1962910307</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17379.00625041184</v>
+        <v>1732845.846498902</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25605.94527362823</v>
+        <v>2519956.496706774</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34180.04322253313</v>
+        <v>3284089.514148034</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42499.41502804287</v>
+        <v>4071200.164355906</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>50818.78683355261</v>
+        <v>4858310.814563775</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59336.07611775346</v>
+        <v>5656674.487131511</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67796.81755089972</v>
+        <v>6443785.13733938</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>76316.74190424019</v>
+        <v>7186894.433641918</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84663.70611023359</v>
+        <v>7979495.971546036</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>92983.07791574333</v>
+        <v>8766606.621753911</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101302.449721253</v>
+        <v>9553717.271961788</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>109621.8215267628</v>
+        <v>10340827.92216966</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>117943.1524809021</v>
+        <v>11127697.85350033</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>126966.1148373603</v>
+        <v>11847701.11838742</v>
       </c>
     </row>
   </sheetData>
